--- a/SubRES_TMPL/SubRES_NEW_ELC.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_ELC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{4E3E9EB7-2FBB-4C54-BB68-0C0832C67ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7B7155-A279-481A-8907-4A6077D0DCD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F34792D-C12D-4855-A026-B1207831489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1109,6 +1109,15 @@
   </si>
   <si>
     <t>Cost parameters based on old PEP2040</t>
+  </si>
+  <si>
+    <t>New_BS</t>
+  </si>
+  <si>
+    <t>New Battery Storage</t>
+  </si>
+  <si>
+    <t>STG</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1364,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1467,12 +1476,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal_MIN" xfId="5" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
   </cellStyles>
@@ -1751,7 +1761,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1789,7 +1799,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1861,7 +1871,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2038,30 +2048,29 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
-    <col min="15" max="18" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="18" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="L1" s="35" t="s">
         <v>104</v>
       </c>
@@ -2069,7 +2078,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="2:19" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -2080,7 +2089,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="2:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="23"/>
@@ -2089,7 +2098,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="23" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2107,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="2:19" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="25" customFormat="1" ht="48.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" s="25" customFormat="1" ht="48.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>38</v>
       </c>
@@ -2506,33 +2515,67 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
+      <c r="B13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="42">
+        <v>2025</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="42">
+        <v>1</v>
+      </c>
+      <c r="I13" s="55">
+        <v>1</v>
+      </c>
+      <c r="J13" s="56">
+        <v>2500</v>
+      </c>
       <c r="K13" s="56"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="16" spans="2:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="L13" s="60">
+        <v>1</v>
+      </c>
+      <c r="M13" s="55">
+        <v>1</v>
+      </c>
+      <c r="N13" s="42">
+        <v>25</v>
+      </c>
+      <c r="O13" s="42">
+        <v>1</v>
+      </c>
+      <c r="P13" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>1</v>
+      </c>
+      <c r="R13" s="42">
+        <v>1</v>
+      </c>
+      <c r="S13" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="18" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D18" s="31" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2583,7 @@
       <c r="F18" s="27"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="2:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>1</v>
       </c>
@@ -2599,14 +2642,14 @@
       <c r="G21" s="9"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="24" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2661,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>57</v>
       </c>
@@ -2698,18 +2741,18 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="33" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
     </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
         <v>27</v>
       </c>
@@ -2721,7 +2764,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>28</v>
       </c>
@@ -2747,7 +2790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
         <v>65</v>
       </c>
@@ -2923,15 +2966,36 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="str">
+        <f>B13</f>
+        <v>New_BS</v>
+      </c>
+      <c r="D46" t="str">
+        <f>C13</f>
+        <v>New Battery Storage</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +3006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>38</v>
       </c>
@@ -2989,26 +3053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0111623235845aab2bc86c0e7049642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9f4b9a3337047529e19b1dde5d7862c" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -3203,15 +3247,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0EFD64C-3030-4CB0-BDE8-433764A2E79A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3225,5 +3295,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0EFD64C-3030-4CB0-BDE8-433764A2E79A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>